--- a/data/steel/factories/IBF_factory-HC.xlsx
+++ b/data/steel/factories/IBF_factory-HC.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/factories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BlackBlox\data\steel\factories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14379E7D-E5B4-484E-9409-ADB3D9A40B51}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7860" yWindow="460" windowWidth="20940" windowHeight="16520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7860" yWindow="465" windowWidth="20940" windowHeight="16515" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="chains" sheetId="9" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="steel" sheetId="2" r:id="rId3"/>
     <sheet name="CO2" sheetId="10" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="70">
   <si>
     <t>Inflow</t>
   </si>
@@ -189,13 +188,7 @@
     <t>simple_CO2storage</t>
   </si>
   <si>
-    <t>waste heat</t>
-  </si>
-  <si>
     <t>heat</t>
-  </si>
-  <si>
-    <t>recovered heat</t>
   </si>
   <si>
     <t>CO2__emitted</t>
@@ -255,7 +248,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -354,7 +347,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -665,21 +658,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -696,12 +689,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -710,7 +703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -724,7 +717,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -738,7 +731,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -752,7 +745,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -766,7 +759,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -780,9 +773,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
         <v>47</v>
@@ -794,9 +787,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
         <v>47</v>
@@ -805,29 +798,29 @@
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -837,18 +830,18 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -857,30 +850,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -918,21 +911,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
@@ -944,10 +937,10 @@
         <v>8</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -973,7 +966,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -999,7 +992,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -1025,7 +1018,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -1051,7 +1044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>35</v>
       </c>
@@ -1077,7 +1070,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -1103,7 +1096,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -1114,22 +1107,22 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="I9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -1140,22 +1133,22 @@
         <v>7</v>
       </c>
       <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="I10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>29</v>
       </c>
@@ -1166,22 +1159,22 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="I11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>8</v>
       </c>
@@ -1192,22 +1185,22 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G12" t="s">
         <v>19</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>35</v>
       </c>
@@ -1218,22 +1211,22 @@
         <v>7</v>
       </c>
       <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="I13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>8</v>
       </c>
@@ -1259,7 +1252,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>9</v>
       </c>
@@ -1285,7 +1278,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>21</v>
       </c>
@@ -1311,7 +1304,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>29</v>
       </c>
@@ -1337,7 +1330,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>35</v>
       </c>
@@ -1363,7 +1356,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>8</v>
       </c>
@@ -1374,7 +1367,7 @@
         <v>19</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>47</v>
@@ -1386,10 +1379,10 @@
         <v>49</v>
       </c>
       <c r="I19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>29</v>
       </c>
@@ -1400,7 +1393,7 @@
         <v>19</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>47</v>
@@ -1409,13 +1402,13 @@
         <v>48</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>9</v>
       </c>
@@ -1426,7 +1419,7 @@
         <v>19</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>47</v>
@@ -1435,15 +1428,15 @@
         <v>48</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>22</v>
@@ -1452,7 +1445,7 @@
         <v>19</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>47</v>
@@ -1461,15 +1454,15 @@
         <v>48</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
         <v>49</v>
@@ -1493,12 +1486,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
@@ -1519,243 +1512,185 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>44</v>
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E25" t="s">
         <v>51</v>
       </c>
       <c r="F25" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G25" t="s">
-        <v>48</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="I25" t="s">
-        <v>57</v>
-      </c>
-      <c r="J25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E26" t="s">
         <v>51</v>
       </c>
       <c r="F26" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G26" t="s">
-        <v>48</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="I26" t="s">
-        <v>70</v>
-      </c>
-      <c r="J26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
         <v>49</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E27" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>52</v>
+        <v>66</v>
+      </c>
+      <c r="F27" t="s">
+        <v>66</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="I27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E28" t="s">
-        <v>52</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>52</v>
+        <v>66</v>
+      </c>
+      <c r="F28" t="s">
+        <v>66</v>
       </c>
       <c r="G28" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="I28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D29" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F29" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G29" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>68</v>
-      </c>
-      <c r="F30" t="s">
-        <v>68</v>
+        <v>23</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="G30" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="I30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" t="s">
-        <v>55</v>
+        <v>63</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>64</v>
-      </c>
-      <c r="F31" t="s">
-        <v>65</v>
+        <v>23</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="G31" t="s">
         <v>19</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="I31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" t="s">
-        <v>19</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" t="s">
-        <v>23</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I33" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1765,21 +1700,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="2" max="2" width="18.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1790,7 +1725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1801,7 +1736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1812,7 +1747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1823,18 +1758,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
@@ -1844,16 +1779,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1864,29 +1799,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="1"/>
       <c r="C4" s="11"/>

--- a/data/steel/factories/IBF_factory-HC.xlsx
+++ b/data/steel/factories/IBF_factory-HC.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BlackBlox\data\steel\factories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/factories/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB27D6A5-CCC1-6B4E-8BFD-6816F9C7BB2B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7860" yWindow="465" windowWidth="20940" windowHeight="16515" activeTab="1"/>
+    <workbookView xWindow="7860" yWindow="460" windowWidth="20940" windowHeight="16520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chains" sheetId="9" r:id="rId1"/>
@@ -22,18 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="70">
   <si>
     <t>Inflow</t>
   </si>
@@ -248,7 +243,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -347,7 +342,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -658,21 +653,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -689,7 +684,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -703,7 +698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -717,7 +712,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -731,7 +726,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -745,7 +740,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -759,7 +754,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -773,7 +768,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -787,7 +782,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -801,7 +796,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -815,7 +810,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -830,7 +825,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>63</v>
       </c>
@@ -850,30 +845,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="16.375" customWidth="1"/>
-    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -911,7 +906,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -940,7 +935,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -966,7 +961,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -992,7 +987,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -1018,7 +1013,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -1044,7 +1039,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>35</v>
       </c>
@@ -1070,7 +1065,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -1096,7 +1091,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -1122,7 +1117,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -1148,7 +1143,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>29</v>
       </c>
@@ -1174,7 +1169,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>8</v>
       </c>
@@ -1200,7 +1195,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>35</v>
       </c>
@@ -1226,7 +1221,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>8</v>
       </c>
@@ -1252,7 +1247,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>9</v>
       </c>
@@ -1278,7 +1273,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>21</v>
       </c>
@@ -1304,7 +1299,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>29</v>
       </c>
@@ -1330,7 +1325,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>35</v>
       </c>
@@ -1356,7 +1351,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>8</v>
       </c>
@@ -1382,7 +1377,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>29</v>
       </c>
@@ -1408,7 +1403,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>9</v>
       </c>
@@ -1434,7 +1429,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>63</v>
       </c>
@@ -1460,7 +1455,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>55</v>
       </c>
@@ -1486,7 +1481,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>68</v>
       </c>
@@ -1512,7 +1507,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>55</v>
       </c>
@@ -1538,7 +1533,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>68</v>
       </c>
@@ -1564,7 +1559,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>55</v>
       </c>
@@ -1590,7 +1585,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>68</v>
       </c>
@@ -1616,35 +1611,35 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" t="s">
-        <v>53</v>
+        <v>56</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>62</v>
-      </c>
-      <c r="F29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>63</v>
-      </c>
-      <c r="G29" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>56</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>22</v>
@@ -1665,32 +1660,6 @@
         <v>44</v>
       </c>
       <c r="I30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I31" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1700,21 +1669,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2"/>
-    <col min="2" max="2" width="18.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.875" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1725,7 +1694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1736,7 +1705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1747,7 +1716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1758,7 +1727,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>34</v>
       </c>
@@ -1769,7 +1738,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
@@ -1779,16 +1748,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1799,7 +1768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -1810,7 +1779,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>54</v>
       </c>
@@ -1821,7 +1790,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="B4" s="1"/>
       <c r="C4" s="11"/>

--- a/data/steel/factories/IBF_factory-HC.xlsx
+++ b/data/steel/factories/IBF_factory-HC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/factories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB27D6A5-CCC1-6B4E-8BFD-6816F9C7BB2B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC36158-B347-F24D-8A69-7726F67A090C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7860" yWindow="460" windowWidth="20940" windowHeight="16520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="140" yWindow="460" windowWidth="18200" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chains" sheetId="9" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="72">
   <si>
     <t>Inflow</t>
   </si>
@@ -186,9 +186,6 @@
     <t>heat</t>
   </si>
   <si>
-    <t>CO2__emitted</t>
-  </si>
-  <si>
     <t>simple_heat</t>
   </si>
   <si>
@@ -238,6 +235,15 @@
   </si>
   <si>
     <t>duplicate_CO2capture</t>
+  </si>
+  <si>
+    <t>CO2__fossil</t>
+  </si>
+  <si>
+    <t>CO2__bio</t>
+  </si>
+  <si>
+    <t>CO2__calcination</t>
   </si>
 </sst>
 </file>
@@ -689,7 +695,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -770,7 +776,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
         <v>47</v>
@@ -784,7 +790,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
         <v>47</v>
@@ -793,7 +799,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -807,15 +813,15 @@
         <v>19</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -827,16 +833,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -846,10 +852,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -911,16 +917,16 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>61</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
@@ -932,7 +938,7 @@
         <v>8</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1102,19 +1108,19 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" t="s">
         <v>62</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="I9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1128,19 +1134,19 @@
         <v>7</v>
       </c>
       <c r="E10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" t="s">
         <v>62</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="I10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1154,19 +1160,19 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" t="s">
         <v>62</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="I11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1180,19 +1186,19 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="I12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1206,19 +1212,19 @@
         <v>7</v>
       </c>
       <c r="E13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" t="s">
         <v>62</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="I13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1362,7 +1368,7 @@
         <v>19</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>47</v>
@@ -1374,7 +1380,7 @@
         <v>49</v>
       </c>
       <c r="I19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
@@ -1388,7 +1394,7 @@
         <v>19</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>47</v>
@@ -1397,10 +1403,10 @@
         <v>48</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
@@ -1414,7 +1420,7 @@
         <v>19</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>47</v>
@@ -1423,15 +1429,15 @@
         <v>48</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>22</v>
@@ -1440,7 +1446,7 @@
         <v>19</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>47</v>
@@ -1449,174 +1455,174 @@
         <v>48</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="I23" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="I24" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" t="s">
-        <v>49</v>
+        <v>9</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" t="s">
-        <v>51</v>
+        <v>19</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G25" t="s">
-        <v>43</v>
+        <v>47</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="I25" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" t="s">
-        <v>51</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G26" t="s">
-        <v>43</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="I26" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" t="s">
-        <v>49</v>
+        <v>9</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="D27" t="s">
         <v>19</v>
       </c>
       <c r="E27" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" t="s">
-        <v>66</v>
-      </c>
-      <c r="G27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>48</v>
       </c>
       <c r="H27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I27" t="s">
         <v>67</v>
-      </c>
-      <c r="I27" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" t="s">
-        <v>66</v>
+        <v>23</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="G28" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="I28" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -1639,27 +1645,157 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" t="s">
+        <v>65</v>
+      </c>
+      <c r="G32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" t="s">
+        <v>48</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" t="s">
         <v>23</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F34" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H30" s="1" t="s">
+      <c r="G34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I35" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1732,10 +1868,10 @@
         <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1770,24 +1906,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="C2" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
